--- a/similarities/split_global/harmonic_similarity_timestamps_19.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_19.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,706 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_32</t>
+          <t>isophonics_221</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>isophonics_165</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['D/5', 'A', 'D'], ['G', 'A', 'D']]</t>
+          <t>['C', 'F/5', 'C']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['G', 'A', 'D']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:04.702789', '0:02:10.612267'), ('0:00:29.965374', '0:00:34.307505')]</t>
+          <t>('0:00:05.121000', '0:00:12.601000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:00:06.536000', '0:00:11.853000'), ('0:00:44.836000', '0:00:49.319000')]</t>
+          <t>('0:00:03.599751', '0:00:06.705328')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=124.702789', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-32#t=29.965374']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-221#t=5.121</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=6.536', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=44.836']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:0qHMhBZqYb99yhX9BHcIkV</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=3.599751</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_211</t>
+          <t>isophonics_1</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>schubert-winterreise_184</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['F:maj', 'C:7/E', 'F:maj', 'C:7/E', 'F:maj']]</t>
+          <t>['Ab/5', 'Eb', 'Ab/5', 'Eb']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['D#/G', 'A#:7/F', 'D#/G', 'A#:7', 'D#']]</t>
+          <t>['D#:maj/G', 'A#:maj/F', 'D#:maj', 'A#:maj/F']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:34.640000', '0:00:41.660000')]</t>
+          <t>('0:00:18.978000', '0:00:25.693000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:46.120000', '0:00:50.740000')]</t>
+          <t>('0:00:25.920000', '0:00:28.360000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-211#t=34.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-1#t=18.978</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=46.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-184#t=25.92</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_36</t>
+          <t>schubert-winterreise_168</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_69</t>
+          <t>schubert-winterreise_118</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:maj', 'C:maj/G', 'G:maj']]</t>
+          <t>['C#:maj/F', 'G#:7', 'C#:maj']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:21.580000', '0:00:29.340000')]</t>
+          <t>('0:00:35.220000', '0:00:40')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:22.125076', '0:00:36.625937')]</t>
+          <t>('0:00:31.740000', '0:00:33.880000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-36#t=21.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-168#t=35.22</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=22.125076']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-118#t=31.74</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr"/>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2qCvEz2hEb92VFATqVvrht</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_122</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_112</t>
+          <t>schubert-winterreise_26</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min'], ['B:min/F#', 'F#:7', 'B:min']]</t>
+          <t>['C#', 'F#/5', 'C#', 'F#/5']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['D#:min', 'A#:maj', 'D#:min'], ['D#:min', 'A#:7', 'D#:min']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:13.120000', '0:00:19.960000'), ('0:01:20.200000', '0:01:26.860000')]</t>
+          <t>('0:00:01.206300', '0:02:07.006105')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:05.060000'), ('0:00:08.260000', '0:00:12.960000')]</t>
+          <t>('0:02:04.920000', '0:02:09.320000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=13.12', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-122#t=80.2']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=0.36', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-112#t=8.26']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-26#t=124.92</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr">
         <is>
           <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_159</t>
+          <t>schubert-winterreise_202</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['B:min7/4', 'E:7', 'A']]</t>
+          <t>['F:maj/A', 'A#:maj', 'F:maj/C']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['D:min7', 'G:7', 'C']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:47.371000', '0:00:50.945000')]</t>
+          <t>('0:01:01.480000', '0:01:03.580000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:00:04.240000', '0:00:11.440000')]</t>
+          <t>('0:01:45', '0:01:48.240000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=47.371']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=61.48</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=4.24']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=105.0</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_129</t>
+          <t>jaah_5</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_265</t>
+          <t>isophonics_111</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'F:maj', 'A#:maj', 'F:maj']]</t>
+          <t>['Bb:7', 'F:7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A']]</t>
+          <t>['A:7', 'E:7', 'A:7']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:47.640000', '0:01:48.840000')]</t>
+          <t>('0:00:22.230000', '0:00:25.410000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:01:42.174263', '0:01:55.003287')]</t>
+          <t>('0:00:11.993129', '0:00:29.175895')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=107.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-5#t=22.23</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-111#t=11.993129</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_209</t>
+          <t>isophonics_45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['F:maj', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:41.709410'), ('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:02:22.380000', '0:02:25.800000'), ('0:02:18.800000', '0:02:24.460000')]</t>
+          <t>('0:00:13.155000', '0:00:20.379000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=142.38', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-209#t=138.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-45#t=13.155</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_138</t>
+          <t>schubert-winterreise_2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_41</t>
+          <t>schubert-winterreise_161</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7', 'A:min']]</t>
+          <t>['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:18', '0:00:26.460000')]</t>
+          <t>('0:00:20.560000', '0:00:30.380000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:00:00.660000', '0:00:02.680000')]</t>
+          <t>('0:00:01.600000', '0:00:12.540000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-138#t=18.0']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-2#t=20.56</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-161#t=1.6</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_70</t>
+          <t>isophonics_294</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>isophonics_159</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj/A#', 'B:min']]</t>
+          <t>['G', 'F', 'C/3']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['A', 'G/2', 'D/5']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:12.120000', '0:00:17.320000')]</t>
+          <t>('0:00:45.670113', '0:00:48.251979')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:59.723000', '0:01:03.111000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-70#t=12.12']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-294#t=45.670113</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-159#t=59.723</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_43</t>
+          <t>schubert-winterreise_145</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_138</t>
+          <t>schubert-winterreise_205</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/A#', 'B:min']]</t>
+          <t>['D:maj/A', 'G:maj', 'D:maj/A']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:7', 'C:min']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:41.320000', '0:00:48.940000')]</t>
+          <t>('0:02:23.580000', '0:02:28.160000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:01.129708', '0:00:06.125260')]</t>
+          <t>('0:00:16.920000', '0:00:23.900000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-43#t=41.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-145#t=143.58</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-138#t=1.129708']</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-205#t=16.92</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr">
         <is>
-          <t>spotify:track:6tQvjqDIK9GXWIC6mejms8</t>
-        </is>
-      </c>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_157</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_63</t>
+          <t>isophonics_287</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['F:maj', 'F:maj/A', 'C:7', 'F:maj']]</t>
+          <t>['F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['A/3', 'D', 'A']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:17.940000', '0:00:20.700000')]</t>
+          <t>('0:01:58.440000', '0:02:01.680000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:04:12.620000', '0:04:19.880000')]</t>
+          <t>('0:01:05.810340', '0:01:11.679931')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-157#t=17.94']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=118.44</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-63#t=252.62']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_28</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>isophonics_8</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj', 'E:7', 'A:maj']]</t>
+          <t>['A:min7/C', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['F#:min7', 'B:7', 'E']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:15.300000', '0:00:22.660000')]</t>
+          <t>('0:01:14.200000', '0:01:21.180000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:00:05.708194', '0:00:10.061936')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-28#t=15.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=74.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-8#t=5.708194</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_87</t>
+          <t>isophonics_101</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_130</t>
+          <t>schubert-winterreise_73</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['E:7', 'A', 'D']]</t>
+          <t>['C#', 'F#/5', 'C#']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:7/A', 'E:maj/G#', 'A:maj']]</t>
+          <t>['G:maj/B', 'C:maj', 'G:maj/D']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:01:06.427052', '0:01:11.593492')]</t>
+          <t>('0:00:01.206300', '0:01:58.925813')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:54.580000', '0:01:00.600000')]</t>
+          <t>('0:01:05.200000', '0:01:07.500000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-87#t=66.427052']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-101#t=1.2063</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-130#t=54.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-73#t=65.2</t>
         </is>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_158</t>
+          <t>schubert-winterreise_126</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>isophonics_147</t>
+          <t>jaah_78</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:maj', 'D:maj/F#']]</t>
+          <t>['D:maj', 'A:7', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['Bb', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:15.520000', '0:01:19.700000')]</t>
+          <t>('0:00:00.580000', '0:00:09.400000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:15.216000', '0:00:32.669000')]</t>
+          <t>('0:00:49.560000', '0:00:55.720000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-158#t=75.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=0.58</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-147#t=15.216']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>isophonics_58</t>
+          <t>schubert-winterreise_128</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_296</t>
+          <t>isophonics_277</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'G', 'F']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'D:maj', 'C:maj']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:41.895260', '0:00:57.278480')]</t>
+          <t>('0:00:18.320000', '0:00:25.820000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:31.672000', '0:00:37.551000')]</t>
+          <t>('0:00:32.920657', '0:00:39.410634')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-58#t=41.89526']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=18.32</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-296#t=31.672']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-277#t=32.920657</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>spotify:track:2RnPATK99oGOZygnD2GTO6</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
